--- a/Requerimientos.xlsx
+++ b/Requerimientos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woolfwp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woolfwp\Desktop\Programacion\Proyectos\Proyecto_Transporte\Modelamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE1D37-FB50-401A-8741-FF1D9E6EB2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB1A9B-25BC-4E6F-9CB3-C7054BE820BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6E95276-85F1-40C4-8951-381047A2A893}"/>
+    <workbookView xWindow="3264" yWindow="2736" windowWidth="17280" windowHeight="8964" xr2:uid="{E6E95276-85F1-40C4-8951-381047A2A893}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="91">
   <si>
     <t>Sujeto</t>
   </si>
@@ -286,6 +286,27 @@
   </si>
   <si>
     <t>Ahorro nequi-trans</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Enviar mensajes entre los viajero</t>
+  </si>
+  <si>
+    <t>mensajes durante el viaje</t>
+  </si>
+  <si>
+    <t>tener una radio para comunicarse</t>
+  </si>
+  <si>
+    <t>radio de conductor</t>
+  </si>
+  <si>
+    <t>compartir archivos o imágenes con los demas pasajeros</t>
+  </si>
+  <si>
+    <t>Compartir archivos</t>
   </si>
 </sst>
 </file>
@@ -322,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -330,47 +351,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -389,6 +518,212 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,15 +739,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A9F9F88-C27D-4891-85DF-38E4BD5BD9A7}" name="Tabla1" displayName="Tabla1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F38" xr:uid="{3B4FCD60-4B70-4954-8709-516F1B75BAF2}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{463C2F10-DA55-41C3-9311-AD5731195194}" name="Lugar, Tiempo, Evento, Objeto" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D6490AEC-2B9B-4263-8652-931E0B61B8D6}" name="Debe, debera, no debe, no debera" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{5C497EB2-2B9A-4E5F-AEEA-D60AE9120CE5}" name="Accion, verbo, sentencia" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{67548815-2CB8-4463-8987-FADA489A0A3B}" name="Sujeto" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D20AEAD1-9520-425E-9F40-162736B481EB}" name="Resultado" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{7462174E-76EC-4030-951F-44C2B033CCA9}" name="Requerimiento" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A9F9F88-C27D-4891-85DF-38E4BD5BD9A7}" name="Tabla1" displayName="Tabla1" ref="A1:G42" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:G42" xr:uid="{3B4FCD60-4B70-4954-8709-516F1B75BAF2}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{463C2F10-DA55-41C3-9311-AD5731195194}" name="ID" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{CD4FDE8A-1465-45C7-9D91-79F419EEBE32}" name="Lugar, Tiempo, Evento, Objeto" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D6490AEC-2B9B-4263-8652-931E0B61B8D6}" name="Debe, debera, no debe, no debera" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5C497EB2-2B9A-4E5F-AEEA-D60AE9120CE5}" name="Accion, verbo, sentencia" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{67548815-2CB8-4463-8987-FADA489A0A3B}" name="Sujeto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D20AEAD1-9520-425E-9F40-162736B481EB}" name="Resultado" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{7462174E-76EC-4030-951F-44C2B033CCA9}" name="Requerimiento" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -715,791 +1051,974 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED14C91D-EA03-4EF6-A646-80D6F74F421D}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3" t="s">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3" t="s">
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3" t="s">
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3" t="s">
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="s">
+    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3" t="s">
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="3" t="s">
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="3" t="s">
+    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3" t="s">
+    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="3" t="s">
+    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="3" t="s">
+    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="3" t="s">
+    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3" t="s">
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="3" t="s">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="3" t="s">
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="3" t="s">
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="3" t="s">
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+    <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
